--- a/data/trans_dic/P19C06-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19C06-Provincia-trans_dic.xlsx
@@ -711,37 +711,37 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.006428662618160202</v>
+        <v>0.006532390740293886</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01139111569866887</v>
+        <v>0.01147128839079447</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.002262251509069007</v>
+        <v>0.002299458167941755</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01998892211616733</v>
+        <v>0.02053182703250137</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.003829567793831888</v>
+        <v>0.003771519009356894</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.001564119182802757</v>
+        <v>0.001578924955328183</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0</v>
+        <v>0.002304509347334599</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01692627436221911</v>
+        <v>0.01606024136601405</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01090437831136217</v>
+        <v>0.01028052306459581</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.00329933989465333</v>
+        <v>0.003002192943304246</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03297744475196057</v>
+        <v>0.03785193617521668</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03851855927962106</v>
+        <v>0.04084294857189958</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.06048707323013473</v>
+        <v>0.05822867564146272</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.0515940530684493</v>
+        <v>0.05719634849677406</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.02394324539239183</v>
+        <v>0.02783087800013657</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.07038557287535234</v>
+        <v>0.06901255726975092</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.03491637974252852</v>
+        <v>0.03484855174823703</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.01286717458145324</v>
+        <v>0.01209157068129766</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.01985898916423883</v>
+        <v>0.02054438448111114</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.04603583353782486</v>
+        <v>0.04645206717256454</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.03924184324757958</v>
+        <v>0.03692682155667112</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.029579829265206</v>
+        <v>0.02622061759566299</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.004549658476290647</v>
+        <v>0.004549658476290648</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.0134879876232583</v>
@@ -821,7 +821,7 @@
         <v>0.00250362018653193</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.007858819558781207</v>
+        <v>0.007858819558781203</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.0142435917137245</v>
@@ -833,7 +833,7 @@
         <v>0.001301720000183528</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.006225651007292339</v>
+        <v>0.00622565100729234</v>
       </c>
     </row>
     <row r="8">
@@ -844,38 +844,38 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.007287104109890023</v>
+        <v>0.007282357924122348</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.00241064094179691</v>
+        <v>0.002434139587889514</v>
       </c>
       <c r="E8" s="5" t="inlineStr"/>
       <c r="F8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.004675199406829091</v>
+        <v>0.006327137744391931</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.002254830493952668</v>
+        <v>0.002253152390893924</v>
       </c>
       <c r="I8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.003128065425432252</v>
+        <v>0.003161851067072763</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.007783872096320418</v>
+        <v>0.007303918646078578</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.003516325763368808</v>
+        <v>0.003492902997693082</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.002427286146761017</v>
+        <v>0.002849587804026177</v>
       </c>
     </row>
     <row r="9">
@@ -886,38 +886,38 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03275612207944577</v>
+        <v>0.03163042167996208</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02333058706543628</v>
+        <v>0.02465187964430528</v>
       </c>
       <c r="E9" s="5" t="inlineStr"/>
       <c r="F9" s="5" t="n">
-        <v>0.01631891069864696</v>
+        <v>0.0157752618269656</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02937051246211419</v>
+        <v>0.03074552686403199</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.0184738163756412</v>
+        <v>0.01853417716556735</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.01171437893284466</v>
+        <v>0.01332854890124518</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.01635121895858969</v>
+        <v>0.01654305525586484</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02434882579350874</v>
+        <v>0.02398263427171494</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.01654313511534434</v>
+        <v>0.01540685921065985</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.006513300479577976</v>
+        <v>0.006872242704590809</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.01271963923923962</v>
+        <v>0.01238264006979825</v>
       </c>
     </row>
     <row r="10">
@@ -979,37 +979,37 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.003343251944323231</v>
+        <v>0.003363468126224697</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.003513640506021067</v>
+        <v>0.003979431498481114</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01243034562735047</v>
+        <v>0.01428795662781213</v>
       </c>
       <c r="I11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.006597980007599001</v>
+        <v>0.006225323333826203</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.001887578959457223</v>
+        <v>0.001840716611900882</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01090531279074473</v>
+        <v>0.01127877671447885</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.007036225380687784</v>
+        <v>0.00654847042511692</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02881663280711578</v>
+        <v>0.02451604443697199</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03302744261160569</v>
+        <v>0.03475726821639401</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.0182061333603431</v>
+        <v>0.01330651575002938</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.0294902247960514</v>
+        <v>0.03318864932940072</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02278342351899051</v>
+        <v>0.02330217598561077</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.05627741450675165</v>
+        <v>0.05720478564982737</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.01736879471175075</v>
+        <v>0.01735272441156724</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.02525623563006471</v>
+        <v>0.02586208943012308</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01650575813083668</v>
+        <v>0.01664203789038978</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.03898620637218554</v>
+        <v>0.03904659309482248</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.01132839515854353</v>
+        <v>0.01168657310918307</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.02560415965936495</v>
+        <v>0.02375028420166114</v>
       </c>
     </row>
     <row r="13">
@@ -1089,7 +1089,7 @@
         <v>0.01537384936240918</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.01073250133615572</v>
+        <v>0.01073250133615571</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.01768567773445389</v>
@@ -1112,38 +1112,38 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.006351299964684413</v>
+        <v>0.005595249531159039</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="5" t="inlineStr"/>
       <c r="F14" s="5" t="n">
-        <v>0</v>
+        <v>0.001878329061870087</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.009322312983946949</v>
+        <v>0.009165135651445987</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.00260523096984206</v>
+        <v>0.002624479599609722</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.005569611285282754</v>
+        <v>0.005823871764720523</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.003595498173757472</v>
+        <v>0.003441483578523574</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.008733997770397241</v>
+        <v>0.008262234688862512</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.003027243246227365</v>
+        <v>0.003186943957278933</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.002965009864163695</v>
+        <v>0.003010483585359904</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.004251374771821773</v>
+        <v>0.004131986030768001</v>
       </c>
     </row>
     <row r="15">
@@ -1154,38 +1154,38 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04697891580622227</v>
+        <v>0.03754214850290678</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04207052138450079</v>
+        <v>0.04083206780368339</v>
       </c>
       <c r="E15" s="5" t="inlineStr"/>
       <c r="F15" s="5" t="n">
-        <v>0.02277009055242041</v>
+        <v>0.02744339638595137</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.04261229167000058</v>
+        <v>0.04084522707922899</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.0224877651823105</v>
+        <v>0.02217923823453171</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.03436208870964408</v>
+        <v>0.03433477914268245</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.02787215753545653</v>
+        <v>0.02898245995500256</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.0336618487496679</v>
+        <v>0.03318165715470526</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.02555697599351842</v>
+        <v>0.02488373584477145</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.01757494340882296</v>
+        <v>0.01775770139048378</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.02087742812688606</v>
+        <v>0.01939311883307814</v>
       </c>
     </row>
     <row r="16">
@@ -1221,7 +1221,7 @@
         <v>0.01749449155822677</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.001966469392237625</v>
+        <v>0.001966469392237624</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.002962690218271584</v>
@@ -1233,7 +1233,7 @@
         <v>0.009615543269195843</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.001056544074440141</v>
+        <v>0.00105654407444014</v>
       </c>
     </row>
     <row r="17">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="C17" s="5" t="inlineStr"/>
       <c r="D17" s="5" t="n">
-        <v>0.005859085177837341</v>
+        <v>0.005875777283975768</v>
       </c>
       <c r="E17" s="5" t="inlineStr"/>
       <c r="F17" s="5" t="inlineStr"/>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.005702940214175002</v>
+        <v>0.005773056179511163</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
@@ -1265,10 +1265,10 @@
         <v>0</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.005255255875659465</v>
+        <v>0.00524668850058525</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.003122202152638166</v>
+        <v>0.003128257568808438</v>
       </c>
       <c r="N17" s="5" t="n">
         <v>0</v>
@@ -1283,33 +1283,33 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>0.04969141331063064</v>
+        <v>0.05464661248943796</v>
       </c>
       <c r="E18" s="5" t="inlineStr"/>
       <c r="F18" s="5" t="inlineStr"/>
       <c r="G18" s="5" t="n">
-        <v>0.02970317801200231</v>
+        <v>0.02960636668426794</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.03428336212902673</v>
+        <v>0.03283122110513537</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.05182532469030218</v>
+        <v>0.05185001748524606</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.009955970856722595</v>
+        <v>0.009979975379794732</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.01489278809906656</v>
+        <v>0.01651028911637102</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.0311048349899972</v>
+        <v>0.03164048648541305</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.02590306427037813</v>
+        <v>0.02659253638026706</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.006359481867220767</v>
+        <v>0.006092514515334189</v>
       </c>
     </row>
     <row r="19">
@@ -1371,37 +1371,37 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.003826938907730438</v>
+        <v>0.003828796757364866</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.004531182793125035</v>
+        <v>0.004222266293423194</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.005684135175568743</v>
+        <v>0.005280887431530069</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.003765822192545033</v>
+        <v>0.003943111519310149</v>
       </c>
       <c r="I20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.004353165039588261</v>
+        <v>0.004337169388776712</v>
       </c>
       <c r="K20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.005670647188725849</v>
+        <v>0.005468005222963868</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.004061595614183471</v>
+        <v>0.004017288622345722</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.007104028854366588</v>
+        <v>0.007084976532057584</v>
       </c>
     </row>
     <row r="21">
@@ -1412,40 +1412,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.02105273807541143</v>
+        <v>0.02414698945756169</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.03200490504172344</v>
+        <v>0.03449003810122356</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.05005761310961682</v>
+        <v>0.04849120323558494</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.03811483905762546</v>
+        <v>0.04029793441134978</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.0251333154822739</v>
+        <v>0.02537490206471836</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.03359229386123671</v>
+        <v>0.04044564108223832</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.02167403946135181</v>
+        <v>0.02122822370489127</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.02699174168774462</v>
+        <v>0.02460744763165465</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.01521274118098861</v>
+        <v>0.01634463342202589</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.02573912025553097</v>
+        <v>0.02520690669812061</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.02739209643187763</v>
+        <v>0.02622745044309773</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.02558096847327701</v>
+        <v>0.02574040700097098</v>
       </c>
     </row>
     <row r="22">
@@ -1504,40 +1504,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.002035990829087831</v>
+        <v>0.00202237654588701</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.001553998263217555</v>
+        <v>0.001549877369673269</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.004111150486186265</v>
+        <v>0.002375529904810557</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.002779116254627669</v>
+        <v>0.002679776757830097</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.009015762683076274</v>
+        <v>0.009459114467546204</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.008273318450542378</v>
+        <v>0.008737910554554321</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.008203656233872999</v>
+        <v>0.008803624219904754</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.01607716648457981</v>
+        <v>0.01535783359950902</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.008122439011633372</v>
+        <v>0.007747262596663826</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.005572201175954698</v>
+        <v>0.005718740630140045</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.008061577485286898</v>
+        <v>0.007957107873044366</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.01129199241541229</v>
+        <v>0.01101230986011786</v>
       </c>
     </row>
     <row r="24">
@@ -1548,40 +1548,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.02133274316235321</v>
+        <v>0.02193039177173981</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.01333860739708206</v>
+        <v>0.01442944876367087</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.03137498830028959</v>
+        <v>0.02988209287627637</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.01675747094588986</v>
+        <v>0.01603642273638055</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.03379792587856594</v>
+        <v>0.03549456060566077</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.02925035291573247</v>
+        <v>0.03029883320976255</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.03469014331173308</v>
+        <v>0.03278603816579518</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.0356905340592945</v>
+        <v>0.03471480925605184</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.02422604493980774</v>
+        <v>0.02412472390330422</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.01726378084948306</v>
+        <v>0.01803904237506583</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.02670614978176348</v>
+        <v>0.02596290363200899</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.02381735762484378</v>
+        <v>0.02266379423092864</v>
       </c>
     </row>
     <row r="25">
@@ -1617,7 +1617,7 @@
         <v>0.02177035203758814</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.004301923452710039</v>
+        <v>0.004301923452710038</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.01037706382484361</v>
@@ -1640,40 +1640,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.00678895248376186</v>
+        <v>0.007074537969061994</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.002174299366450666</v>
+        <v>0.001649227240812651</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.01249850303252625</v>
+        <v>0.01169539614898467</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.001430470264375953</v>
+        <v>0.001436355080781989</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.001933911937079239</v>
+        <v>0.001717704444617886</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.001596132793946882</v>
+        <v>0.001572623058662044</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.01113563545644727</v>
+        <v>0.01304425748308374</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.0009487458164863695</v>
+        <v>0.001349142039272278</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.005906111901282512</v>
+        <v>0.005384173390643647</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.00320030593698092</v>
+        <v>0.003262756084061019</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.01472141012955519</v>
+        <v>0.01390117213495741</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.001824357161438048</v>
+        <v>0.001704226386900521</v>
       </c>
     </row>
     <row r="27">
@@ -1684,40 +1684,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.02860303794155383</v>
+        <v>0.0279736605901209</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.01826496495351137</v>
+        <v>0.01669906890994668</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.03876209514935676</v>
+        <v>0.03772249121012777</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.01323902990546807</v>
+        <v>0.01202962121603434</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.01597016001917771</v>
+        <v>0.017482444343262</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.01600645160930837</v>
+        <v>0.01576321107812323</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.03572644299522994</v>
+        <v>0.03742266567009594</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.01034897802791784</v>
+        <v>0.01195492331776116</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.01708486185830337</v>
+        <v>0.01753125572311984</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.0127953396935041</v>
+        <v>0.01395841312212696</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.0312741945773665</v>
+        <v>0.03072704722633334</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.008284905723588306</v>
+        <v>0.008829908488779837</v>
       </c>
     </row>
     <row r="28">
@@ -1741,7 +1741,7 @@
         <v>0.01186144532022465</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.007683582821886484</v>
+        <v>0.007683582821886486</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>0.0113049266740139</v>
@@ -1765,7 +1765,7 @@
         <v>0.01263311886270478</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.009371387981608154</v>
+        <v>0.009371387981608156</v>
       </c>
     </row>
     <row r="29">
@@ -1776,40 +1776,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.007147232851096902</v>
+        <v>0.007156884207620992</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.006680149521062651</v>
+        <v>0.006726138565788882</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.008133121728030129</v>
+        <v>0.007907948687461235</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.005091376514890156</v>
+        <v>0.00480042045018388</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.008086496470269313</v>
+        <v>0.007911422793353384</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.01006907109977965</v>
+        <v>0.01077359374258148</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.009128408233092128</v>
+        <v>0.009693770657563288</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.008481152975360976</v>
+        <v>0.008095209391692334</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.008656045164250567</v>
+        <v>0.008725999643284918</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.009427517940338385</v>
+        <v>0.009810404176243291</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.009849704873866494</v>
+        <v>0.0095505027239339</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.007479909920151092</v>
+        <v>0.00739150125303964</v>
       </c>
     </row>
     <row r="30">
@@ -1820,40 +1820,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.01598676159928088</v>
+        <v>0.01562843073179364</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.0143253067143151</v>
+        <v>0.01452863850705079</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.01702566022041163</v>
+        <v>0.01712989639035469</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.01172433349535105</v>
+        <v>0.01152544816835177</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.0161338084125114</v>
+        <v>0.01584496231151602</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.01895871762787916</v>
+        <v>0.01920581754949181</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.01799736164018128</v>
+        <v>0.01889031630622855</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.01453923036879515</v>
+        <v>0.01389923061570041</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.01429731763218028</v>
+        <v>0.01444026151979718</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.01540727137272386</v>
+        <v>0.015335866984293</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.01622841290401865</v>
+        <v>0.01579545046547381</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.01174222857486746</v>
+        <v>0.0117486007640259</v>
       </c>
     </row>
     <row r="31">
@@ -2131,37 +2131,37 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1611</v>
+        <v>1637</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2793</v>
+        <v>2813</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>681</v>
+        <v>692</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>4982</v>
+        <v>5117</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>943</v>
+        <v>929</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>0</v>
+        <v>905</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>8460</v>
+        <v>8027</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>5360</v>
+        <v>5053</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>2014</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="7">
@@ -2172,40 +2172,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>6315</v>
+        <v>7248</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>9651</v>
+        <v>10234</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>14833</v>
+        <v>14279</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>15526</v>
+        <v>17211</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>4818</v>
+        <v>5600</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>17543</v>
+        <v>17201</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>8601</v>
+        <v>8584</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>3982</v>
+        <v>3742</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>7799</v>
+        <v>8068</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>23009</v>
+        <v>23217</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>19289</v>
+        <v>18151</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>18055</v>
+        <v>16005</v>
       </c>
     </row>
     <row r="8">
@@ -2308,38 +2308,38 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2986</v>
+        <v>2984</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>980</v>
+        <v>989</v>
       </c>
       <c r="E10" s="6" t="inlineStr"/>
       <c r="F10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>2063</v>
+        <v>2792</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1663</v>
+        <v>1681</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>6624</v>
+        <v>6215</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>2968</v>
+        <v>2949</v>
       </c>
       <c r="M10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>2548</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="11">
@@ -2350,38 +2350,38 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>13422</v>
+        <v>12961</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>9480</v>
+        <v>10017</v>
       </c>
       <c r="E11" s="6" t="inlineStr"/>
       <c r="F11" s="6" t="n">
-        <v>8454</v>
+        <v>8172</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>12958</v>
+        <v>13565</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>8088</v>
+        <v>8115</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>4608</v>
+        <v>5242</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>8693</v>
+        <v>8794</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>20720</v>
+        <v>20408</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>13965</v>
+        <v>13006</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>4927</v>
+        <v>5199</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>13351</v>
+        <v>12997</v>
       </c>
     </row>
     <row r="12">
@@ -2487,37 +2487,37 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1055</v>
+        <v>1195</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>4087</v>
+        <v>4697</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>2255</v>
+        <v>2127</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>992</v>
+        <v>967</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>6788</v>
+        <v>7020</v>
       </c>
       <c r="M14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>4517</v>
+        <v>4204</v>
       </c>
     </row>
     <row r="15">
@@ -2528,40 +2528,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>6816</v>
+        <v>5799</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>9699</v>
+        <v>10207</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>5289</v>
+        <v>3866</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>8854</v>
+        <v>9964</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>6580</v>
+        <v>6730</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>18501</v>
+        <v>18806</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>5345</v>
+        <v>5341</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>8630</v>
+        <v>8837</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>8671</v>
+        <v>8743</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>24266</v>
+        <v>24303</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>6777</v>
+        <v>6992</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>16436</v>
+        <v>15246</v>
       </c>
     </row>
     <row r="16">
@@ -2664,38 +2664,38 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1699</v>
+        <v>1497</v>
       </c>
       <c r="D18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E18" s="6" t="inlineStr"/>
       <c r="F18" s="6" t="n">
-        <v>0</v>
+        <v>696</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2792</v>
+        <v>2745</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>893</v>
+        <v>900</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1943</v>
+        <v>2032</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1509</v>
+        <v>1444</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>4953</v>
+        <v>4685</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1986</v>
+        <v>2090</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>2013</v>
+        <v>2044</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>3360</v>
+        <v>3266</v>
       </c>
     </row>
     <row r="19">
@@ -2706,38 +2706,38 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>12568</v>
+        <v>10044</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>13171</v>
+        <v>12784</v>
       </c>
       <c r="E19" s="6" t="inlineStr"/>
       <c r="F19" s="6" t="n">
-        <v>8442</v>
+        <v>10174</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>12764</v>
+        <v>12235</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>7709</v>
+        <v>7603</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>11988</v>
+        <v>11978</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>11696</v>
+        <v>12161</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>19088</v>
+        <v>18816</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>16763</v>
+        <v>16321</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>11932</v>
+        <v>12056</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>16500</v>
+        <v>15327</v>
       </c>
     </row>
     <row r="20">
@@ -2841,7 +2841,7 @@
       </c>
       <c r="C22" s="6" t="inlineStr"/>
       <c r="D22" s="6" t="n">
-        <v>1125</v>
+        <v>1128</v>
       </c>
       <c r="E22" s="6" t="inlineStr"/>
       <c r="F22" s="6" t="inlineStr"/>
@@ -2852,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>830</v>
+        <v>840</v>
       </c>
       <c r="J22" s="6" t="n">
         <v>0</v>
@@ -2861,10 +2861,10 @@
         <v>0</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>2032</v>
+        <v>2029</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0</v>
@@ -2879,33 +2879,33 @@
       </c>
       <c r="C23" s="6" t="inlineStr"/>
       <c r="D23" s="6" t="n">
-        <v>9544</v>
+        <v>10495</v>
       </c>
       <c r="E23" s="6" t="inlineStr"/>
       <c r="F23" s="6" t="inlineStr"/>
       <c r="G23" s="6" t="n">
-        <v>5166</v>
+        <v>5149</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>6671</v>
+        <v>6388</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>7541</v>
+        <v>7544</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>2188</v>
+        <v>2194</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>5126</v>
+        <v>5683</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>12026</v>
+        <v>12233</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>6857</v>
+        <v>7040</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>2602</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="24">
@@ -3014,34 +3014,34 @@
         <v>957</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1059</v>
+        <v>986</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>1420</v>
+        <v>1319</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>997</v>
+        <v>1044</v>
       </c>
       <c r="I26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="K26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>2919</v>
+        <v>2815</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>1953</v>
+        <v>1931</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>3561</v>
+        <v>3552</v>
       </c>
     </row>
     <row r="27">
@@ -3052,40 +3052,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>3985</v>
+        <v>4570</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>8000</v>
+        <v>8622</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>11694</v>
+        <v>11328</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>9519</v>
+        <v>10064</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>5139</v>
+        <v>5189</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>8896</v>
+        <v>10711</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>5356</v>
+        <v>5246</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>6790</v>
+        <v>6190</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>5990</v>
+        <v>6436</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>13251</v>
+        <v>12977</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>13169</v>
+        <v>12609</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>12824</v>
+        <v>12904</v>
       </c>
     </row>
     <row r="28">
@@ -3188,40 +3188,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1818</v>
+        <v>1051</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>1939</v>
+        <v>1870</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>4863</v>
+        <v>5102</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>5179</v>
+        <v>5470</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>3996</v>
+        <v>4288</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>11919</v>
+        <v>11386</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>8152</v>
+        <v>7776</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>6693</v>
+        <v>6869</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>7492</v>
+        <v>7395</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>16250</v>
+        <v>15847</v>
       </c>
     </row>
     <row r="31">
@@ -3232,40 +3232,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>9905</v>
+        <v>10183</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>7671</v>
+        <v>8298</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>13877</v>
+        <v>13217</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>11691</v>
+        <v>11188</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>18230</v>
+        <v>19145</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>18310</v>
+        <v>18967</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>16896</v>
+        <v>15968</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>26460</v>
+        <v>25737</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>24315</v>
+        <v>24214</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>20735</v>
+        <v>21666</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>24820</v>
+        <v>24129</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>34275</v>
+        <v>32615</v>
       </c>
     </row>
     <row r="32">
@@ -3368,40 +3368,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>3568</v>
+        <v>3718</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>1378</v>
+        <v>1045</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>8002</v>
+        <v>7488</v>
       </c>
       <c r="F34" s="6" t="n">
+        <v>1108</v>
+      </c>
+      <c r="G34" s="6" t="n">
+        <v>1018</v>
+      </c>
+      <c r="H34" s="6" t="n">
         <v>1103</v>
       </c>
-      <c r="G34" s="6" t="n">
-        <v>1146</v>
-      </c>
-      <c r="H34" s="6" t="n">
-        <v>1119</v>
-      </c>
       <c r="I34" s="6" t="n">
-        <v>7699</v>
+        <v>9018</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>769</v>
+        <v>1093</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>6603</v>
+        <v>6019</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>4273</v>
+        <v>4356</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>19603</v>
+        <v>18511</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>2885</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="35">
@@ -3412,40 +3412,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>15032</v>
+        <v>14702</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>11578</v>
+        <v>10586</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>24818</v>
+        <v>24152</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>10208</v>
+        <v>9275</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>9461</v>
+        <v>10357</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>11225</v>
+        <v>11054</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>24699</v>
+        <v>25872</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>8386</v>
+        <v>9687</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>19100</v>
+        <v>19599</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>17084</v>
+        <v>18637</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>41644</v>
+        <v>40916</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>13101</v>
+        <v>13963</v>
       </c>
     </row>
     <row r="36">
@@ -3548,40 +3548,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>17545</v>
+        <v>17568</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>19470</v>
+        <v>19604</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>21669</v>
+        <v>21069</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>17299</v>
+        <v>16310</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>22165</v>
+        <v>21685</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>31670</v>
+        <v>33886</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>26174</v>
+        <v>27795</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>30748</v>
+        <v>29349</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>44974</v>
+        <v>45337</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>57130</v>
+        <v>59450</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>54485</v>
+        <v>52830</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>52532</v>
+        <v>51911</v>
       </c>
     </row>
     <row r="39">
@@ -3592,40 +3592,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>39243</v>
+        <v>38364</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>41753</v>
+        <v>42346</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>45362</v>
+        <v>45640</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>39836</v>
+        <v>39160</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>44222</v>
+        <v>43430</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>59630</v>
+        <v>60408</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>51604</v>
+        <v>54164</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>52711</v>
+        <v>50391</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>74284</v>
+        <v>75027</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>93367</v>
+        <v>92934</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>89770</v>
+        <v>87375</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>82467</v>
+        <v>82512</v>
       </c>
     </row>
     <row r="40">
